--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/132.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/132.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1160652148144041</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.607802966570565</v>
+        <v>-1.604401511249434</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03904421717326399</v>
+        <v>-0.04289111990572286</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1552209944973464</v>
+        <v>-0.1462286232573556</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.09646770792919998</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.593070934604751</v>
+        <v>-1.586119279155527</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.06799672489046883</v>
+        <v>-0.07346014526050353</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1302901056350649</v>
+        <v>-0.1200400931171548</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0803694734952663</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.642050474611825</v>
+        <v>-1.634845402084071</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1158138517764624</v>
+        <v>-0.1213276407583787</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1247306700986308</v>
+        <v>-0.1155352503919922</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.06884864383090339</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.736340516054222</v>
+        <v>-1.728986698719505</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1432458570224908</v>
+        <v>-0.1481017060117034</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1370143153212614</v>
+        <v>-0.1263361696023575</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05170558880845406</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.76343332017961</v>
+        <v>-1.760212877057429</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1058896612166616</v>
+        <v>-0.1091101043388428</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1262291363021091</v>
+        <v>-0.1165127162663199</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01902547900867102</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.619259464744952</v>
+        <v>-1.620809873579433</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04096766853949343</v>
+        <v>-0.04463355907300273</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1260764564473429</v>
+        <v>-0.1174807380259199</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03551748498378193</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.33470356593885</v>
+        <v>-1.331936440323603</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001104288553752658</v>
+        <v>-0.009392844966201628</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1237720924537587</v>
+        <v>-0.1123069371742045</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1131562714100078</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9182362076625826</v>
+        <v>-0.910713183272326</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01084746691460392</v>
+        <v>-0.009364512622018217</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08386913370966498</v>
+        <v>-0.07215528340894525</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2153323865712604</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.400915935217656</v>
+        <v>-0.383798477273511</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03063738104639701</v>
+        <v>-0.05617584128950067</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03623301902262096</v>
+        <v>-0.02492526565519682</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3435553568381747</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1561042475047166</v>
+        <v>0.1809942118698444</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0800395451875404</v>
+        <v>-0.1157556130689743</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04616215992010615</v>
+        <v>0.05757065051129353</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4926963554330729</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8240030591888735</v>
+        <v>0.8605203028030495</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2016057639829564</v>
+        <v>-0.2448676795319058</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1236039006881</v>
+        <v>0.1373860121142088</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6511078347096418</v>
       </c>
       <c r="E13" t="n">
-        <v>1.509699305077577</v>
+        <v>1.554192103579384</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3993970067656009</v>
+        <v>-0.449902558310776</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2415246911985836</v>
+        <v>0.2560355734778547</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.8008435952056185</v>
       </c>
       <c r="E14" t="n">
-        <v>2.224346484664365</v>
+        <v>2.278199974880546</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6255142976551724</v>
+        <v>-0.6809638432603531</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3599617599808539</v>
+        <v>0.3768777434774724</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.931269990180963</v>
       </c>
       <c r="E15" t="n">
-        <v>2.949226362558728</v>
+        <v>3.010786250392798</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8676354279605688</v>
+        <v>-0.928875002903454</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4715848999870134</v>
+        <v>0.4889762372582647</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.053405141539747</v>
       </c>
       <c r="E16" t="n">
-        <v>3.568683161765735</v>
+        <v>3.631352733080322</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.139923421735253</v>
+        <v>-1.213300258122488</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6106227310288671</v>
+        <v>0.6348201269806226</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.18701155965036</v>
       </c>
       <c r="E17" t="n">
-        <v>4.1577881502567</v>
+        <v>4.225522915103634</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.385206756455343</v>
+        <v>-1.468046595799837</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7586733955592885</v>
+        <v>0.7844841611103772</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.338130392737229</v>
       </c>
       <c r="E18" t="n">
-        <v>4.688393144085405</v>
+        <v>4.753995113022976</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.622232786865089</v>
+        <v>-1.709318542789292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8916874554239244</v>
+        <v>0.9213514197839572</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.494858513896104</v>
       </c>
       <c r="E19" t="n">
-        <v>5.117121324307043</v>
+        <v>5.184051765382992</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.904574040767521</v>
+        <v>-1.99875862292879</v>
       </c>
       <c r="G19" t="n">
-        <v>1.034026004563146</v>
+        <v>1.066649124871224</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.637816243001319</v>
       </c>
       <c r="E20" t="n">
-        <v>5.454125114254007</v>
+        <v>5.521708773265294</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.153513034896831</v>
+        <v>-2.252588881477542</v>
       </c>
       <c r="G20" t="n">
-        <v>1.185013788773914</v>
+        <v>1.217498395399318</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.75268752136881</v>
       </c>
       <c r="E21" t="n">
-        <v>5.738904523775333</v>
+        <v>5.806404759773192</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.371618568458982</v>
+        <v>-2.475049725948333</v>
       </c>
       <c r="G21" t="n">
-        <v>1.322307606629367</v>
+        <v>1.354430188856871</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.832455113844585</v>
       </c>
       <c r="E22" t="n">
-        <v>5.948790529486052</v>
+        <v>6.012201463806772</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.575056604839293</v>
+        <v>-2.680535561205455</v>
       </c>
       <c r="G22" t="n">
-        <v>1.436461769382578</v>
+        <v>1.470019857048708</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.870494827177258</v>
       </c>
       <c r="E23" t="n">
-        <v>6.083882294590805</v>
+        <v>6.152191576417012</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.698522664714119</v>
+        <v>-2.800675718676973</v>
       </c>
       <c r="G23" t="n">
-        <v>1.535980702345935</v>
+        <v>1.569161025422954</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.864294875284241</v>
       </c>
       <c r="E24" t="n">
-        <v>6.185549763654738</v>
+        <v>6.256638763249162</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.777358986423585</v>
+        <v>-2.873591367461667</v>
       </c>
       <c r="G24" t="n">
-        <v>1.584652521614795</v>
+        <v>1.616805010205604</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.820553934821838</v>
       </c>
       <c r="E25" t="n">
-        <v>6.202330381506925</v>
+        <v>6.274322868076975</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.85551533187265</v>
+        <v>-2.9517343337482</v>
       </c>
       <c r="G25" t="n">
-        <v>1.638036954132829</v>
+        <v>1.667112235341495</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.749389338011039</v>
       </c>
       <c r="E26" t="n">
-        <v>6.192817009937783</v>
+        <v>6.262731791267717</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.920001321253217</v>
+        <v>-3.012786600415651</v>
       </c>
       <c r="G26" t="n">
-        <v>1.656322334264979</v>
+        <v>1.68565732862866</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.659118625894831</v>
       </c>
       <c r="E27" t="n">
-        <v>6.09695767143145</v>
+        <v>6.166441171522147</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.939380644674672</v>
+        <v>-3.026663152989038</v>
       </c>
       <c r="G27" t="n">
-        <v>1.663518749687566</v>
+        <v>1.692096640853901</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.5576621453737</v>
       </c>
       <c r="E28" t="n">
-        <v>5.936029956469667</v>
+        <v>6.001602019043933</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.952322229890006</v>
+        <v>-3.036635351132038</v>
       </c>
       <c r="G28" t="n">
-        <v>1.652105537039015</v>
+        <v>1.677667607568938</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.450291338139666</v>
       </c>
       <c r="E29" t="n">
-        <v>5.76697558078461</v>
+        <v>5.830630488069131</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.913961022875226</v>
+        <v>-2.993316770894721</v>
       </c>
       <c r="G29" t="n">
-        <v>1.616021148683196</v>
+        <v>1.64066399204628</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.340528134104463</v>
       </c>
       <c r="E30" t="n">
-        <v>5.578068101922586</v>
+        <v>5.637117429258182</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.889166286666937</v>
+        <v>-2.964266673991996</v>
       </c>
       <c r="G30" t="n">
-        <v>1.548347770581994</v>
+        <v>1.570687823970615</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.232152833404045</v>
       </c>
       <c r="E31" t="n">
-        <v>5.340137797527653</v>
+        <v>5.397235341152836</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.794806201373643</v>
+        <v>-2.862827437700652</v>
       </c>
       <c r="G31" t="n">
-        <v>1.474109158725847</v>
+        <v>1.496158018577028</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.127366218832657</v>
       </c>
       <c r="E32" t="n">
-        <v>5.109170953725354</v>
+        <v>5.165670370084443</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.733989250564827</v>
+        <v>-2.80127778099087</v>
       </c>
       <c r="G32" t="n">
-        <v>1.401534285080915</v>
+        <v>1.422709564319774</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.026129325351654</v>
       </c>
       <c r="E33" t="n">
-        <v>4.815696662577962</v>
+        <v>4.870935289620888</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.614909981981066</v>
+        <v>-2.676800413830609</v>
       </c>
       <c r="G33" t="n">
-        <v>1.329184496170329</v>
+        <v>1.348815662651192</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9279367680240767</v>
       </c>
       <c r="E34" t="n">
-        <v>4.562562907490386</v>
+        <v>4.610167541795003</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.540488783906848</v>
+        <v>-2.60015119169019</v>
       </c>
       <c r="G34" t="n">
-        <v>1.229196505508824</v>
+        <v>1.248018626161338</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.831310810466998</v>
       </c>
       <c r="E35" t="n">
-        <v>4.254557271815146</v>
+        <v>4.295448714567416</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.470019160836656</v>
+        <v>-2.526325759853385</v>
       </c>
       <c r="G35" t="n">
-        <v>1.138863548137378</v>
+        <v>1.156360344689756</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7358255085519766</v>
       </c>
       <c r="E36" t="n">
-        <v>3.919410824431318</v>
+        <v>3.955786406324577</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.375848744847478</v>
+        <v>-2.430057963385074</v>
       </c>
       <c r="G36" t="n">
-        <v>1.063055639217294</v>
+        <v>1.076190828784549</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6419783115359466</v>
       </c>
       <c r="E37" t="n">
-        <v>3.638966263570053</v>
+        <v>3.67218121506774</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.307704735029007</v>
+        <v>-2.361328418453479</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9754504569830618</v>
+        <v>0.9896386653424663</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5508939814444028</v>
       </c>
       <c r="E38" t="n">
-        <v>3.348304744592426</v>
+        <v>3.371365698738602</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.240373706086689</v>
+        <v>-2.293247369399861</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8883741451735865</v>
+        <v>0.9000376268624246</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.464224983969644</v>
       </c>
       <c r="E39" t="n">
-        <v>3.034705044960083</v>
+        <v>3.05305968193357</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.165119064887742</v>
+        <v>-2.215365690287463</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8019652174715426</v>
+        <v>0.8116658973161187</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3833576921787812</v>
       </c>
       <c r="E40" t="n">
-        <v>2.752335458713468</v>
+        <v>2.773458795321323</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.089414254220103</v>
+        <v>-2.141609515291995</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7358202119371238</v>
+        <v>0.7447102719342301</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3082948198863153</v>
       </c>
       <c r="E41" t="n">
-        <v>2.457847499251958</v>
+        <v>2.476457127323096</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.033550741586021</v>
+        <v>-2.081249817037917</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6792452426602131</v>
+        <v>0.6863409208590366</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2402038054383318</v>
       </c>
       <c r="E42" t="n">
-        <v>2.186551137523693</v>
+        <v>2.20000427895345</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.951055612429091</v>
+        <v>-1.995234394116198</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6102071899808437</v>
+        <v>0.614406672996474</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.1801367727933327</v>
       </c>
       <c r="E43" t="n">
-        <v>1.935521846001295</v>
+        <v>1.94713338505913</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.887404640192373</v>
+        <v>-1.93235783928716</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5388710693843752</v>
+        <v>0.5441755138231585</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1280828613825665</v>
       </c>
       <c r="E44" t="n">
-        <v>1.731483321326208</v>
+        <v>1.745265432752317</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.837042324387236</v>
+        <v>-1.880651311152433</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4712606520480255</v>
+        <v>0.4776669098717193</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.08354799871553292</v>
       </c>
       <c r="E45" t="n">
-        <v>1.523884365398739</v>
+        <v>1.532467491667192</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.751805253921001</v>
+        <v>-1.795470905374564</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4210856445183235</v>
+        <v>0.4267489653167634</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.04521509617904339</v>
       </c>
       <c r="E46" t="n">
-        <v>1.325790910944805</v>
+        <v>1.336513129199105</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.693210031101901</v>
+        <v>-1.735941502206972</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3715433926753843</v>
+        <v>0.3748614249830862</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01227017632333056</v>
       </c>
       <c r="E47" t="n">
-        <v>1.173373917371896</v>
+        <v>1.181930285315286</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.663450838585029</v>
+        <v>-1.704549264851751</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3211275602201233</v>
+        <v>0.3271324431678854</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.01584271901297478</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9991992574852466</v>
+        <v>1.005138031629914</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.600043839312113</v>
+        <v>-1.641972560665321</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2522028369174875</v>
+        <v>0.2561268665868901</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.0392398895727883</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8525274337050845</v>
+        <v>0.8588093440181956</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.550105721660167</v>
+        <v>-1.591721213208236</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2172344281186714</v>
+        <v>0.2215236302242158</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.05813383024908239</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7530509992580025</v>
+        <v>0.7592368944047141</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.497027435861226</v>
+        <v>-1.540891413724073</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1746871172507925</v>
+        <v>0.1796358333681619</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.07269958882667073</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6383286156020018</v>
+        <v>0.6437904619529152</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.459115611305577</v>
+        <v>-1.503601326721338</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1400586965821774</v>
+        <v>0.145589799774428</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.08348254918888869</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5268518593741232</v>
+        <v>0.5365415210848502</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.416876021175913</v>
+        <v>-1.459700359409141</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1035666372739422</v>
+        <v>0.1061590467667245</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.09168382611664719</v>
       </c>
       <c r="E53" t="n">
-        <v>0.454972702180806</v>
+        <v>0.4681913147614892</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.377959185411314</v>
+        <v>-1.419875314611551</v>
       </c>
       <c r="G53" t="n">
-        <v>0.07010771281245351</v>
+        <v>0.07428043750302163</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09885700610952838</v>
       </c>
       <c r="E54" t="n">
-        <v>0.360323784378753</v>
+        <v>0.376928112089354</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.322404967534567</v>
+        <v>-1.368214433031341</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03991015597029982</v>
+        <v>0.04341707057255775</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1063609080097198</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2681319104250504</v>
+        <v>0.2869886594982327</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.290225720618696</v>
+        <v>-1.336625443285958</v>
       </c>
       <c r="G55" t="n">
-        <v>0.007688410538153435</v>
+        <v>0.008794945980427819</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1150048663997743</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2010771218385198</v>
+        <v>0.2231291297279425</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.269331403792989</v>
+        <v>-1.316572439680587</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.01215052646672043</v>
+        <v>-0.008338252154930169</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1251447961444187</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1236526952808603</v>
+        <v>0.1472865923871901</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.277107058252215</v>
+        <v>-1.323541409340146</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.04836398439048536</v>
+        <v>-0.04426681261773967</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1375496194570091</v>
       </c>
       <c r="E58" t="n">
-        <v>0.05961215331162052</v>
+        <v>0.08399213548144688</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.258760291374334</v>
+        <v>-1.303640298579981</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.07919587093852323</v>
+        <v>-0.07438724252294963</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1522207380608368</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01987446657526336</v>
+        <v>0.04689407881151097</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.267207264988794</v>
+        <v>-1.314024102723201</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1031870703853883</v>
+        <v>-0.09939211028393236</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1685585708160357</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.03834220464516388</v>
+        <v>-0.006660347771623634</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.27365208628096</v>
+        <v>-1.317997713994925</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1094327782587094</v>
+        <v>-0.1040606509977102</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1861989843342745</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.07936586500362371</v>
+        <v>-0.04510104275202903</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.255196712083709</v>
+        <v>-1.298004523116163</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1396319091199844</v>
+        <v>-0.1352136374464934</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2049277430221159</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.1342770960693195</v>
+        <v>-0.099039530000761</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.278486686012035</v>
+        <v>-1.322715836311024</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1481520746235851</v>
+        <v>-0.1428098537258905</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2240222501994767</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1786848975385758</v>
+        <v>-0.1423140377026808</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.315422618712477</v>
+        <v>-1.362612498978632</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1657574784953333</v>
+        <v>-0.1617295635639248</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2431212422531928</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2398796129365039</v>
+        <v>-0.1967924135100189</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.356032312042035</v>
+        <v>-1.404064292538086</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1836225955220961</v>
+        <v>-0.177435126356263</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2622604386140671</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.2975516735409611</v>
+        <v>-0.2497219545019971</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.388121052858431</v>
+        <v>-1.436915645618752</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2083960824722476</v>
+        <v>-0.2028555351652692</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.281648803827256</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.362021922730316</v>
+        <v>-0.3165044377805427</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.432490290859216</v>
+        <v>-1.478948252233966</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2149581681889502</v>
+        <v>-0.2087880132334514</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3015866334784053</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.3542132138695433</v>
+        <v>-0.3037218284964598</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.479394486654855</v>
+        <v>-1.525281866098134</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2478252614608298</v>
+        <v>-0.2418613030102215</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3219179020536556</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.3765564152964065</v>
+        <v>-0.331116057283577</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.507068890845563</v>
+        <v>-1.556201110707404</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2579824068505832</v>
+        <v>-0.2521742762929836</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3422257161900147</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.4053137446425701</v>
+        <v>-0.3592154466370369</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.56375955052789</v>
+        <v>-1.615661257033659</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2626792799085444</v>
+        <v>-0.2583050807704498</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3624266916271466</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4307136912029993</v>
+        <v>-0.3856841521808292</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.582463619746306</v>
+        <v>-1.633638129418034</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2733102050538093</v>
+        <v>-0.2686668486459722</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3823364245044831</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.4353712137829281</v>
+        <v>-0.3925201172246381</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.617389530028847</v>
+        <v>-1.672044982987331</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2908982947152232</v>
+        <v>-0.2872969389656871</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4011118924967627</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.4316565286566584</v>
+        <v>-0.3907650859043879</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.64874792597296</v>
+        <v>-1.704786154729507</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2872213860478647</v>
+        <v>-0.284877671576248</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4178501230133569</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.3905148168641011</v>
+        <v>-0.3516302484914889</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.675401578763505</v>
+        <v>-1.729456543427213</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2877423863770153</v>
+        <v>-0.2872418482964416</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4313215494333504</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.3498028122916588</v>
+        <v>-0.3100556814405738</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.707910582685289</v>
+        <v>-1.761924622851843</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2925510147925889</v>
+        <v>-0.2919906639854058</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4406213520458401</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2823623890204095</v>
+        <v>-0.2468540916629873</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.727437076894584</v>
+        <v>-1.781175663714911</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2945925175929158</v>
+        <v>-0.29580766035456</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4449039422524087</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.1734953564956474</v>
+        <v>-0.1392730327603279</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.735268609032616</v>
+        <v>-1.789273992094003</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2759010405274702</v>
+        <v>-0.2788963989153054</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4429571185876943</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.08456170212303728</v>
+        <v>-0.05288771534510354</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.722072819729191</v>
+        <v>-1.775562711528353</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2608376775366226</v>
+        <v>-0.2654542756193975</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4339875978207778</v>
       </c>
       <c r="E78" t="n">
-        <v>0.05327043027190005</v>
+        <v>0.08224340023768181</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.726713028098786</v>
+        <v>-1.779429289499828</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.231148528870649</v>
+        <v>-0.2378459802317835</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.417455984216442</v>
       </c>
       <c r="E79" t="n">
-        <v>0.1808966226843237</v>
+        <v>0.2098869068604398</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.755093379865398</v>
+        <v>-1.808093751717835</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2148715971372786</v>
+        <v>-0.2212400785020612</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3936472125318486</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3267940290568058</v>
+        <v>0.3565225282008119</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.716644027779825</v>
+        <v>-1.764804290834263</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1878441148054245</v>
+        <v>-0.1950452522853751</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3638796096804039</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4601103005927314</v>
+        <v>0.4863885498228464</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.700270293870495</v>
+        <v>-1.743052920597008</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1595495470809233</v>
+        <v>-0.1664059743733091</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3296887578390447</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6336144283337063</v>
+        <v>0.6651687896584211</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.664566031132471</v>
+        <v>-1.703515134289056</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.1343306127194437</v>
+        <v>-0.1404220667188774</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2929781417048815</v>
       </c>
       <c r="E83" t="n">
-        <v>0.810625470676939</v>
+        <v>0.8382683944852217</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.600538081316202</v>
+        <v>-1.634029273169677</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1120724083251307</v>
+        <v>-0.1218266048198311</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2557517263284015</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9902509587806522</v>
+        <v>1.02015102600888</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.526009849941735</v>
+        <v>-1.55417534809829</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09450792895053632</v>
+        <v>-0.1059541960006349</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2196035723809007</v>
       </c>
       <c r="E85" t="n">
-        <v>1.133477254704287</v>
+        <v>1.167318665812252</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.424162155688414</v>
+        <v>-1.449260677587114</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.07193806877020575</v>
+        <v>-0.08605859430739422</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1861009585444936</v>
       </c>
       <c r="E86" t="n">
-        <v>1.297230333988804</v>
+        <v>1.328888580575525</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.311446646412071</v>
+        <v>-1.332270132377319</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04254640971815801</v>
+        <v>-0.05595705263163987</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1569671540271759</v>
       </c>
       <c r="E87" t="n">
-        <v>1.434058242184352</v>
+        <v>1.469665702746416</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.183595369265302</v>
+        <v>-1.201986208678579</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01755413411014569</v>
+        <v>-0.03207446050414454</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1339598527051717</v>
       </c>
       <c r="E88" t="n">
-        <v>1.530636907429119</v>
+        <v>1.560003382175226</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.042702556688995</v>
+        <v>-1.056036859675094</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.004308763204400407</v>
+        <v>-0.01796023104344127</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1186741526643682</v>
       </c>
       <c r="E89" t="n">
-        <v>1.634700033595671</v>
+        <v>1.665158877611961</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9033790411766255</v>
+        <v>-0.9102165802395557</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02114470000615301</v>
+        <v>0.006172630124340873</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1125614987479864</v>
       </c>
       <c r="E90" t="n">
-        <v>1.679759478981146</v>
+        <v>1.709003180235792</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.719653233261924</v>
+        <v>-0.7189055741793061</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02370562911650924</v>
+        <v>0.007480640014141744</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1166762587963668</v>
       </c>
       <c r="E91" t="n">
-        <v>1.703830953403198</v>
+        <v>1.726411831717377</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.536479906058799</v>
+        <v>-0.5339236990058067</v>
       </c>
       <c r="G91" t="n">
-        <v>0.003895024455818778</v>
+        <v>-0.01062530193818007</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1300764237691006</v>
       </c>
       <c r="E92" t="n">
-        <v>1.67972799859872</v>
+        <v>1.698874367190222</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3756607984163865</v>
+        <v>-0.3698684080499999</v>
       </c>
       <c r="G92" t="n">
-        <v>0.001844077540763981</v>
+        <v>-0.0139024097487281</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1502238825947734</v>
       </c>
       <c r="E93" t="n">
-        <v>1.639425238997816</v>
+        <v>1.655423569346716</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2251216096551887</v>
+        <v>-0.2173648434254189</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.01627760460277084</v>
+        <v>-0.02909484230752234</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1756954743073067</v>
       </c>
       <c r="E94" t="n">
-        <v>1.544349762013891</v>
+        <v>1.556924600773962</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.08986772058094189</v>
+        <v>-0.07887634505689919</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02204481066321656</v>
+        <v>-0.03535629037205647</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2039042605704336</v>
       </c>
       <c r="E95" t="n">
-        <v>1.47462071494027</v>
+        <v>1.487064910113274</v>
       </c>
       <c r="F95" t="n">
-        <v>0.01823276463174674</v>
+        <v>0.02779335677452712</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.05892880073265557</v>
+        <v>-0.07075440639098764</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2312655301275284</v>
       </c>
       <c r="E96" t="n">
-        <v>1.391939064517466</v>
+        <v>1.4028706273149</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09819451001294298</v>
+        <v>0.1097918828986865</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08722179443803543</v>
+        <v>-0.09983126161877524</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2532927767532484</v>
       </c>
       <c r="E97" t="n">
-        <v>1.314565006571689</v>
+        <v>1.322745183945088</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1631983516844188</v>
+        <v>0.17294153004527</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1053749569639963</v>
+        <v>-0.1195474251321877</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2682239008933492</v>
       </c>
       <c r="E98" t="n">
-        <v>1.216947488706863</v>
+        <v>1.228160800927009</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1948345620034413</v>
+        <v>0.2059550070954307</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.127082254665854</v>
+        <v>-0.1401387432770433</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2742569949855182</v>
       </c>
       <c r="E99" t="n">
-        <v>1.130760497700922</v>
+        <v>1.141991124131402</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2171085065889674</v>
+        <v>0.2267415036113276</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1297250327705179</v>
+        <v>-0.1424997719589943</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2747910784838041</v>
       </c>
       <c r="E100" t="n">
-        <v>1.044277591100177</v>
+        <v>1.053761056306014</v>
       </c>
       <c r="F100" t="n">
-        <v>0.22922530578474</v>
+        <v>0.2387339552965175</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1446986766714514</v>
+        <v>-0.1570169503147505</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2746146085546893</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9548748790294193</v>
+        <v>0.9631762558751591</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2195025896724657</v>
+        <v>0.2331162810525953</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1575568388733567</v>
+        <v>-0.1708085058555872</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2848481656393618</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8943302335285883</v>
+        <v>0.9020822777009941</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2255861735762928</v>
+        <v>0.2392533816065467</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1819934857315499</v>
+        <v>-0.1963453920795695</v>
       </c>
     </row>
   </sheetData>
